--- a/Taxonomies/MostlyImpactData/GLIDE-HIP.xlsx
+++ b/Taxonomies/MostlyImpactData/GLIDE-HIP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t xml:space="preserve">haz_Ab</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">AC</t>
   </si>
   <si>
+    <t xml:space="preserve">haztypetech</t>
+  </si>
+  <si>
     <t xml:space="preserve">AV</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t xml:space="preserve">EP</t>
   </si>
   <si>
+    <t xml:space="preserve">haztypebio</t>
+  </si>
+  <si>
     <t xml:space="preserve">EQ</t>
   </si>
   <si>
@@ -100,30 +106,144 @@
     <t xml:space="preserve">ET</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MH0047,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">MH0040,MH0042,MH0043,MH0037,MH0038,MH0039</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">FA</t>
   </si>
   <si>
     <t xml:space="preserve">FF</t>
   </si>
   <si>
+    <t xml:space="preserve">hazhmflood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH0006</t>
+  </si>
+  <si>
     <t xml:space="preserve">FL</t>
   </si>
   <si>
-    <t xml:space="preserve">hazhmflood</t>
-  </si>
-  <si>
     <t xml:space="preserve">MH0004,MH0005,MH0006,MH0007,MH0008,MH0012</t>
   </si>
   <si>
     <t xml:space="preserve">FR</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">haztypeenviron,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">haztypetech</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hazenvenvdeg,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">haztechindfail</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">EN0013,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">TL0032</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">HT</t>
   </si>
   <si>
+    <t xml:space="preserve">MH0047</t>
+  </si>
+  <si>
     <t xml:space="preserve">IN</t>
   </si>
   <si>
+    <t xml:space="preserve">hazbioinfest</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BI0002,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">BI0003</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">LS</t>
   </si>
   <si>
@@ -143,6 +263,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">haztypegeohaz</t>
     </r>
@@ -164,6 +285,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">hazgeoseis,hazenvenvdeg,hazgeovolc,hazgeoother</t>
     </r>
@@ -175,6 +297,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">GH0007,GH0005,</t>
     </r>
@@ -242,6 +365,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">MH0059</t>
     </r>
@@ -302,7 +426,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -341,10 +465,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="8"/>
@@ -352,12 +476,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -407,7 +525,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -423,7 +541,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -433,35 +551,35 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="1" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -477,315 +595,366 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="D18" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Taxonomies/MostlyImpactData/GLIDE-HIP.xlsx
+++ b/Taxonomies/MostlyImpactData/GLIDE-HIP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
   <si>
     <t xml:space="preserve">haz_Ab</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">haz_spec</t>
   </si>
   <si>
+    <t xml:space="preserve">haz_potlink</t>
+  </si>
+  <si>
     <t xml:space="preserve">AC</t>
   </si>
   <si>
@@ -106,25 +109,7 @@
     <t xml:space="preserve">ET</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MH0047,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">MH0040,MH0042,MH0043,MH0037,MH0038,MH0039</t>
-    </r>
+    <t xml:space="preserve">MH0047,MH0040,MH0042,MH0043,MH0037,MH0038,MH0039</t>
   </si>
   <si>
     <t xml:space="preserve">FA</t>
@@ -148,67 +133,13 @@
     <t xml:space="preserve">FR</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">haztypeenviron,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">haztypetech</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hazenvenvdeg,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">haztechindfail</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">EN0013,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">TL0032</t>
-    </r>
+    <t xml:space="preserve">haztypeenviron,haztypetech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hazenvenvdeg,haztechindfail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN0013,TL0032</t>
   </si>
   <si>
     <t xml:space="preserve">HT</t>
@@ -223,25 +154,7 @@
     <t xml:space="preserve">hazbioinfest</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BI0002,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">BI0003</t>
-    </r>
+    <t xml:space="preserve">BI0002,BI0003</t>
   </si>
   <si>
     <t xml:space="preserve">LS</t>
@@ -426,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -467,12 +380,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -545,7 +452,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -569,7 +476,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -591,364 +498,366 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Taxonomies/MostlyImpactData/GLIDE-HIP.xlsx
+++ b/Taxonomies/MostlyImpactData/GLIDE-HIP.xlsx
@@ -100,16 +100,16 @@
     <t xml:space="preserve">hazgeoseis</t>
   </si>
   <si>
-    <t xml:space="preserve">GH0001,GH0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH0003,GH0004,GH0005,GH0006,GH0007</t>
+    <t xml:space="preserve">GH0001:GH0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH0003:GH0004:GH0005:GH0006:GH0007</t>
   </si>
   <si>
     <t xml:space="preserve">ET</t>
   </si>
   <si>
-    <t xml:space="preserve">MH0047,MH0040,MH0042,MH0043,MH0037,MH0038,MH0039</t>
+    <t xml:space="preserve">MH0047:MH0040:MH0042:MH0043:MH0037:MH0038:MH0039</t>
   </si>
   <si>
     <t xml:space="preserve">FA</t>
@@ -127,19 +127,19 @@
     <t xml:space="preserve">FL</t>
   </si>
   <si>
-    <t xml:space="preserve">MH0004,MH0005,MH0006,MH0007,MH0008,MH0012</t>
+    <t xml:space="preserve">MH0004:MH0005:MH0006:MH0007:MH0008:MH0012</t>
   </si>
   <si>
     <t xml:space="preserve">FR</t>
   </si>
   <si>
-    <t xml:space="preserve">haztypeenviron,haztypetech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hazenvenvdeg,haztechindfail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EN0013,TL0032</t>
+    <t xml:space="preserve">haztypeenviron:haztypetech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hazenvenvdeg:haztechindfail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN0013:TL0032</t>
   </si>
   <si>
     <t xml:space="preserve">HT</t>
@@ -154,76 +154,19 @@
     <t xml:space="preserve">hazbioinfest</t>
   </si>
   <si>
-    <t xml:space="preserve">BI0002,BI0003</t>
+    <t xml:space="preserve">BI0002:BI0003</t>
   </si>
   <si>
     <t xml:space="preserve">LS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">haztypehydromet,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">haztypegeohaz</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hazhmterr,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hazgeoseis,hazenvenvdeg,hazgeovolc,hazgeoother</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">GH0007,GH0005,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MH0051,MH0052</t>
-    </r>
+    <t xml:space="preserve">haztypehydromet:haztypegeohaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hazhmterr:hazgeoseis:hazenvenvdeg:hazgeovolc:hazgeoother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH0007:GH0005:MH0051:MH0052</t>
   </si>
   <si>
     <t xml:space="preserve">MS</t>
@@ -238,10 +181,10 @@
     <t xml:space="preserve">SL</t>
   </si>
   <si>
-    <t xml:space="preserve">hazhmwind,hazhmprecip,hazhmconv,hazhmmarine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MH0059,MH0001,MH0002,MH0003,MH0027,MH0054,MH0060</t>
+    <t xml:space="preserve">hazhmwind:hazhmprecip:hazhmconv:hazhmmarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH0059:MH0001:MH0002:MH0003:MH0027:MH0054:MH0060</t>
   </si>
   <si>
     <t xml:space="preserve">SS</t>
@@ -262,26 +205,7 @@
     <t xml:space="preserve">hazhmwind</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MH0057,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MH0059</t>
-    </r>
+    <t xml:space="preserve">MH0057:MH0059</t>
   </si>
   <si>
     <t xml:space="preserve">TO</t>
@@ -293,7 +217,7 @@
     <t xml:space="preserve">TS</t>
   </si>
   <si>
-    <t xml:space="preserve">hazgeoother,hazhmmarine,hazhmflood</t>
+    <t xml:space="preserve">hazgeoother:hazhmmarine:hazhmflood</t>
   </si>
   <si>
     <t xml:space="preserve">GH0006</t>
@@ -305,13 +229,13 @@
     <t xml:space="preserve">hazgeovolc</t>
   </si>
   <si>
-    <t xml:space="preserve">GH0012,GH0013,GH0009,GH0010</t>
+    <t xml:space="preserve">GH0012:GH0013:GH0009:GH0010</t>
   </si>
   <si>
     <t xml:space="preserve">VW</t>
   </si>
   <si>
-    <t xml:space="preserve">MH0054,MH0060</t>
+    <t xml:space="preserve">MH0054:MH0060</t>
   </si>
   <si>
     <t xml:space="preserve">WF</t>
@@ -476,10 +400,10 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="11" sqref="B14:C14 B17:C17 C20:D20 C22 C25 D9:D10 D13:D14 D16:D17 D22:D23 D26:D27 E9 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="1" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="1" width="9.14"/>
